--- a/biology/Botanique/Amarone_della_Valpolicella/Amarone_della_Valpolicella.xlsx
+++ b/biology/Botanique/Amarone_della_Valpolicella/Amarone_della_Valpolicella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Amarone della Valpolicella est un vin de paille rouge sec doté d'une appellation DOCG[1] produit uniquement à Valpolicella dans la province de Vérone, plus précisément dans les communes de Marano, Fumane, Negrar, S. Ambrogio, S. Pietro in Cariano, Dolcè, Verona, S. Martino Buon Albergo, Lavagno, Mezzane, Tregnago, Illasi, Colognola ai Colli, Cazzano di Tramigna, Grezzana, Pescantina, Cerro Veronese, S. Mauro di Saline et Montecchia di Crosara.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amarone della Valpolicella est un vin de paille rouge sec doté d'une appellation DOCG produit uniquement à Valpolicella dans la province de Vérone, plus précisément dans les communes de Marano, Fumane, Negrar, S. Ambrogio, S. Pietro in Cariano, Dolcè, Verona, S. Martino Buon Albergo, Lavagno, Mezzane, Tregnago, Illasi, Colognola ai Colli, Cazzano di Tramigna, Grezzana, Pescantina, Cerro Veronese, S. Mauro di Saline et Montecchia di Crosara.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom « Amarone » vient du mot « amaro » qui a été adapté pour le distinguer du vin doux Recioto della Valpolicella (it) auquel il doit son origine. En fait, Recioto est l'équivalent d'Amarone (quant à la région, les cépages et la typologie), mais celui-là est doux contrairement à celui-ci qui est toujours un vin de paille mais sec.
 Le nouvel épithète pour indiquer le Recioto Amer ou Recioto Sec Amarone naît au printemps 1936 dans la « Cantina sociale Valpolicella » : le chef de cave Adelino Lucchese, ayant trouvé par hasard un tonneau de Recioto oublié dans la cave, s'écria, après l'avoir goûté : « Ceci n'est pas un Amaro, c'est un Amarone ». Bref, le Recioto mis en tonneau et oublié, la fermentation a continué jusqu'à en faire un vin sec. Les sucres se sont transformés en alcool et ont fait perdre au vin sa douceur. Ainsi, à ce vin fut donné le nom d'Amarone, par opposition à ce qu'il aurait dû être.
@@ -551,12 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Position géographique
-L'aire de production de l'appellation couvre toute la Vénétie de la province de Vérone allant du Lac de Garde jusqu'à la frontière avec la province de Vicence.
-Géologie
-Les sols de Valpolicella se constituent à la fois de la désagrégation des formations calcaires dolomitiques de basaltes, et de dépôts morainiques et fluviaux d'origine volcanique. C'est pourquoi ils présentent un degré de variabilité élevé qui détermine un apport hydrique variable de la vigne aux diverses étapes d'évolution et du développement de l'appareil foliaire et, ensuite, pendant la phase de maturation des raisins.
-Climatologie
-Le climat de l'aire de production d'Amarone della Valpolicella est doux et pas trop pluvieux. Ceci grâce à la protection de la chaîne de montagnes Lessini (it) au Nord, à la proximité du lac de Garde et à l'exposition vers le Sud des terrains vallonnés. La pluviosité n'excède qu'en hiver et la moyenne annuelle varie entre 850 et 1 000 millimètres.
+          <t>Position géographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de production de l'appellation couvre toute la Vénétie de la province de Vérone allant du Lac de Garde jusqu'à la frontière avec la province de Vicence.
 </t>
         </is>
       </c>
@@ -582,10 +597,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sols de Valpolicella se constituent à la fois de la désagrégation des formations calcaires dolomitiques de basaltes, et de dépôts morainiques et fluviaux d'origine volcanique. C'est pourquoi ils présentent un degré de variabilité élevé qui détermine un apport hydrique variable de la vigne aux diverses étapes d'évolution et du développement de l'appareil foliaire et, ensuite, pendant la phase de maturation des raisins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat de l'aire de production d'Amarone della Valpolicella est doux et pas trop pluvieux. Ceci grâce à la protection de la chaîne de montagnes Lessini (it) au Nord, à la proximité du lac de Garde et à l'exposition vers le Sud des terrains vallonnés. La pluviosité n'excède qu'en hiver et la moyenne annuelle varie entre 850 et 1 000 millimètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la production du vin Amarone della Valpolicella, les cépages utilisés principalement sont les suivants : le Corvina, de 45 à 95 %, le Corvinone (en), qui peut être utilisé à la place de Corvina jusqu'à 50 %, et le Rondinella, dans les proportions de 5 à 30 %.
 Les cépages à baies rouges, non aromatiques, admis à la culture dans la province de Vérone peuvent être utilisés également, dans une proportion n'excédant pas 15 % et en respectant la limite de 10 % pour chaque cépage utilisé.
@@ -594,31 +685,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Amarone_della_Valpolicella</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Culture de la vigne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les terrains humides, en plaine ou sur le fond de la vallée ne sont pas appropriés pour la culture de vignobles utilisés dans la production du vin Amarone della Valpolicella. Par contre, les terrains collinaires s'y prêtent bien.
 Le nombre de pieds par hectare ne doit pas être inférieur à 3 300. Les tailles admises sont : la taille en espalier ou la taille en pergola Véronèse.
@@ -636,31 +729,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Amarone_della_Valpolicella</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Propriétés du vin</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Couleur : rouge grenat ;
 Odeur : caractéristique, prononcée ;
@@ -674,62 +769,66 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Amarone_della_Valpolicella</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Amarone della Valpolicella peut accompagner les plats principaux de viande, de gibier, les fromages affinés. C'est également un vin de méditation[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Amarone_della_Valpolicella</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amarone della Valpolicella peut accompagner les plats principaux de viande, de gibier, les fromages affinés. C'est également un vin de méditation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>L'Amarone della Valpolicella portant la dénomination « Classico » doit être produit exclusivement dans la sous-zone comprenant les communes de Fumane, Marano di Valpolicella, Negrar, San Pietro in Cariano, Sant'Ambrogio di Valpolicella.
 L'Amarone della Valpolicella peut porter sur l'étiquette la mention « Valpantena » s'il est produit dans la sous-zone spécifique indiquée dans le cahier des charges de production.
@@ -737,31 +836,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Amarone_della_Valpolicella</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amarone_della_Valpolicella</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Autres vins produits dans l'aire Valpolicella</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Valpolicella
